--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1180732.896568059</v>
+        <v>1165795.037503894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655641</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396887.814324548</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6661041.588828482</v>
+        <v>6926604.069066199</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>427.8084003977384</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.3982067786351</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>312.3411504335334</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>335.4842659654362</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>331.4221655450822</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>313.5689679889809</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>92.21956428898076</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>128.5829343862776</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1660,10 +1660,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>182.2068050015603</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>62.61079093391906</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>41.94061297377403</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1821,19 +1821,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.9254647561321</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U31" t="n">
-        <v>136.0564930766999</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>82.62483121292129</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>287.3640657570654</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>204.1476381228705</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>8.973093636263428</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>15.57230972412453</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2210.394775134949</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C2" t="n">
-        <v>1772.252302318372</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.342517492816</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>902.5677726511115</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7003430603193</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358311</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358311</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>508.557199136501</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1342.907491094679</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1342.907491094679</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1342.907491094679</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1342.907491094679</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>2250.02607317902</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>3078.335948012416</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>3624.83473397101</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>3665.125584179155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179155</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179155</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>3302.508634112982</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2897.653179524015</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.510716103326</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2232.653941579452</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2508.05756769164</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>2401.601106528282</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>2306.510817674835</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>2212.390403001789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>2129.006564617951</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>2043.621474884134</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>2001.885822700347</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>2027.949495860804</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>2352.507820827017</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>3547.952806084816</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>3665.125584179155</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>3601.670146627539</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>3471.49150295814</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>3295.154955958109</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.037438020108</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>2910.714683753302</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>2755.847247992182</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>2629.361468771403</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2127.524134888238</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1954.962423371463</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>1789.084430572985</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>1619.326426823722</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>1442.619372785479</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>1277.028097811306</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>1137.125923501681</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.465974276356</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>1135.045659441046</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>1409.804114012181</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.013995780142</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>2287.497862961055</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>2729.7566661187</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>3149.425915344481</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>3496.932809314823</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>3665.125584179155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>3643.707762884527</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>3484.466394182524</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>3238.586947760979</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2960.153947014084</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2792.154178959704</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W4" t="n">
-        <v>2792.154178959704</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>2546.762424293117</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>2319.342753607225</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2499.941719064592</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C5" t="n">
-        <v>2061.799246248016</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>1625.88946142246</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>1192.114716580755</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>764.247286989963</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8494556132268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7193010564431</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>508.557199136501</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1342.907491094679</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>2121.162858634107</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>2121.162858634107</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2121.162858634107</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634107</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467504</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>3495.971519426098</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179155</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179155</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179155</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>3665.125584179155</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>3349.629472630132</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2930.487009209442</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>2926.2412895495</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579.4742566748758</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>473.0177955115182</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>377.9275066580714</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>283.8070919850251</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>200.4232536011867</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>115.0381638673706</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>99.3661848440407</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>423.924509810253</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1104.65802988063</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1619.369495068052</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1619.369495068052</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1619.369495068052</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1619.369495068052</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1619.369495068052</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1619.369495068052</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1736.542273162392</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1673.086835610775</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1542.908191941377</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1366.571644941345</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1167.454127003344</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>982.1313727365382</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>827.2639369754182</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>700.778157754639</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1152.360672295464</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>979.7989607786893</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>813.920967980212</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>644.1629642309493</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>301.8646352185332</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9624609089078</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>159.882196848273</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>434.6406514194085</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>852.8505331873696</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1312.334400368283</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1754.593203525927</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2174.262452751709</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2521.769346722051</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2689.962121586383</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2668.544300291755</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2509.302931589751</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2263.423485168206</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>2263.423485168206</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>2089.017120780639</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1816.990716366931</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1571.598961700343</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1344.179291014452</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1340.205920974947</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>902.0634481583706</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>466.1536633328151</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>436.4193225315144</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>412.5922969811261</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>73.7193010564431</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>73.7193010564431</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>508.557199136501</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1342.907491094679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1342.907491094679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.907491094679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1342.907491094679</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634107</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467504</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>3495.971519426098</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>3581.473710362992</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>3361.406483236031</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>3361.406483236031</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2998.789533169857</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2593.934078580891</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>2174.791615160202</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1766.505491459855</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2508.05756769164</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>2401.601106528282</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>2306.510817674835</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>2212.390403001789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>2129.006564617951</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>2043.621474884134</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>2001.885822700347</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>2027.949495860804</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>2352.507820827017</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>2352.507820827017</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>2352.507820827017</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>2352.507820827017</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>2352.507820827017</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>2352.507820827017</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>3007.21386745274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>3547.952806084816</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>3665.125584179155</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>3601.670146627539</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>3471.49150295814</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>3295.154955958109</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>3096.037438020108</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>2910.714683753302</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>2755.847247992182</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>2629.361468771403</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1152.360672295464</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>979.7989607786893</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>813.920967980212</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>644.1629642309493</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4559101927056</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8646352185332</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>161.9624609089078</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358311</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>159.882196848273</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>434.6406514194085</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>852.8505331873696</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1312.334400368283</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1754.593203525927</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2174.262452751709</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2521.769346722051</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2689.962121586383</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2668.544300291755</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2509.302931589751</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2263.423485168206</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1984.990484421312</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1984.990484421312</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1816.990716366931</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.598961700343</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1344.179291014452</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1080.983618291964</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>1080.983618291964</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>1080.983618291964</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>764.247286989963</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>764.247286989963</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>362.8494556132268</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H11" t="n">
-        <v>73.7193010564431</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>73.30251168358311</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K11" t="n">
-        <v>907.652803641761</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L11" t="n">
-        <v>1814.771385726102</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>1814.771385726102</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>1814.771385726102</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>2721.889967810443</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3550.199842643839</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>3665.125584179155</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179155</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>3581.473710362992</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>3361.406483236031</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.184180553048</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V11" t="n">
-        <v>2739.567230486874</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W11" t="n">
-        <v>2334.711775897908</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.569312477218</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>1507.283188776872</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.4742566748758</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>473.0177955115182</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>377.9275066580714</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>283.8070919850251</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>200.4232536011867</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>115.0381638673706</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>99.3661848440407</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>423.924509810253</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.369495068052</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1736.542273162392</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1673.086835610775</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.908191941377</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1366.571644941345</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1167.454127003344</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>982.1313727365382</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>827.2639369754182</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.778157754639</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.7985487605143</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>751.2368372437393</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>585.358844445262</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>415.6008406959992</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>238.8937866577554</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>73.30251168358311</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358311</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>159.882196848273</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>434.6406514194085</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>852.8505331873696</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1312.334400368283</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1754.593203525927</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2174.262452751709</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.769346722051</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.722952543698</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.843506122153</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.410505375259</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.454997245689</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.428592831981</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.036838165393</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.617167479501</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2210.811564507809</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1772.669091691232</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1336.759306865676</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>902.9845620239714</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>475.1171324331792</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>73.7193010564431</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>73.7193010564431</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>508.557199136501</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K14" t="n">
-        <v>1342.907491094679</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L14" t="n">
-        <v>1342.907491094679</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1342.907491094679</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>1342.907491094679</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>2121.162858634107</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467504</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>3495.971519426098</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179155</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362992</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>3397.426432583638</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U14" t="n">
-        <v>3397.426432583638</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>3034.809482517465</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>2629.954027928498</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2210.811564507809</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2210.811564507809</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>579.4742566748758</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>473.0177955115182</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>377.9275066580714</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>283.8070919850251</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>200.4232536011867</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>115.0381638673706</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>99.3661848440407</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>423.924509810253</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1619.369495068052</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1736.542273162392</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1673.086835610775</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1542.908191941377</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1366.571644941345</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1167.454127003344</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>982.1313727365382</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>827.2639369754182</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.778157754639</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1152.360672295464</v>
+        <v>1075.290341150174</v>
       </c>
       <c r="C16" t="n">
-        <v>979.7989607786893</v>
+        <v>902.7286296333992</v>
       </c>
       <c r="D16" t="n">
-        <v>813.920967980212</v>
+        <v>736.8506368349219</v>
       </c>
       <c r="E16" t="n">
-        <v>644.1629642309493</v>
+        <v>567.0926330856591</v>
       </c>
       <c r="F16" t="n">
-        <v>467.4559101927056</v>
+        <v>390.3855790474154</v>
       </c>
       <c r="G16" t="n">
-        <v>301.8646352185332</v>
+        <v>224.794304073243</v>
       </c>
       <c r="H16" t="n">
-        <v>161.9624609089078</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>159.882196848273</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>434.6406514194085</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>852.8505331873696</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1312.334400368283</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1754.593203525927</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2174.262452751709</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2521.769346722051</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2530.720752884379</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2284.841306462834</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2284.841306462834</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1997.885798333265</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1725.859393919556</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="X16" t="n">
-        <v>1480.467639252969</v>
+        <v>1494.528630555053</v>
       </c>
       <c r="Y16" t="n">
-        <v>1344.179291014452</v>
+        <v>1267.108959869161</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,25 +5761,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,25 +7183,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>697.7765985000558</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>528.018594750793</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>351.3115407125492</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>185.7202657383769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1080.983618291964</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>790.716885204019</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>790.716885204019</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>790.716885204019</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>362.8494556132268</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>362.8494556132268</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>73.7193010564431</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>508.557199136501</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1342.907491094679</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2121.162858634107</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2121.162858634107</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2121.162858634107</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>2121.162858634107</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>2949.472733467504</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>3495.971519426098</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179155</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>3581.473710362992</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>3361.406483236031</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>3102.184180553048</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="V41" t="n">
-        <v>2739.567230486874</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2334.711775897908</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.569312477218</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1507.283188776872</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>579.4742566748758</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>473.0177955115182</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>377.9275066580714</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>283.8070919850251</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>200.4232536011867</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>115.0381638673706</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>99.3661848440407</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>423.924509810253</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1619.369495068052</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1736.542273162392</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1673.086835610775</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1542.908191941377</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1366.571644941345</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1167.454127003344</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>982.1313727365382</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>827.2639369754182</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.778157754639</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.378527806567</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>588.816816289792</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>422.9388234913147</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>253.1808197420519</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>76.47376570380814</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>159.882196848273</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>434.6406514194085</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>852.8505331873696</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1312.334400368283</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1754.593203525927</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2174.262452751709</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2521.769346722051</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2668.544300291755</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2509.302931589751</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2263.423485168206</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>1984.990484421312</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1698.034976291742</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.008571878034</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1180.616817211446</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.1971465255542</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1375.638988289367</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>937.4965154727909</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>501.5867306472354</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>501.5867306472354</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>73.7193010564431</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>73.7193010564431</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>73.7193010564431</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>508.557199136501</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1342.907491094679</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L44" t="n">
-        <v>1342.907491094679</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M44" t="n">
-        <v>1342.907491094679</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N44" t="n">
-        <v>1342.907491094679</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>2250.02607317902</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>3078.335948012416</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.83473397101</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179155</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179155</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>3656.061853233435</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>3396.839550550451</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3034.222600484278</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>2629.367145895311</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2210.224682474622</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.938558774275</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>579.4742566748758</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>473.0177955115182</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>377.9275066580714</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>283.8070919850251</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>200.4232536011867</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>115.0381638673706</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>99.3661848440407</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>423.924509810253</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1078.630556435977</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
-        <v>1078.630556435977</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1619.369495068052</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1736.542273162392</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1673.086835610775</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1542.908191941377</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1366.571644941345</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1167.454127003344</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>982.1313727365382</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>827.2639369754182</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>700.778157754639</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1152.360672295464</v>
+        <v>1032.92608562111</v>
       </c>
       <c r="C46" t="n">
-        <v>979.7989607786893</v>
+        <v>860.3643741043346</v>
       </c>
       <c r="D46" t="n">
-        <v>813.920967980212</v>
+        <v>694.4863813058573</v>
       </c>
       <c r="E46" t="n">
-        <v>644.1629642309493</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F46" t="n">
-        <v>467.4559101927056</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G46" t="n">
-        <v>301.8646352185332</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9624609089078</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358311</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>159.882196848273</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>434.6406514194085</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>852.8505331873696</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1312.334400368283</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1754.593203525927</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2174.262452751709</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2521.769346722051</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2689.962121586383</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2668.544300291755</v>
+        <v>2694.700103439709</v>
       </c>
       <c r="S46" t="n">
-        <v>2668.544300291755</v>
+        <v>2535.458734737706</v>
       </c>
       <c r="T46" t="n">
-        <v>2654.405629657103</v>
+        <v>2289.579288316161</v>
       </c>
       <c r="U46" t="n">
-        <v>2375.972628910209</v>
+        <v>2011.146287569267</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.017120780639</v>
+        <v>1724.190779439697</v>
       </c>
       <c r="W46" t="n">
-        <v>1816.990716366931</v>
+        <v>1452.164375025989</v>
       </c>
       <c r="X46" t="n">
-        <v>1571.598961700343</v>
+        <v>1452.164375025989</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.179291014452</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458549</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>786.1165328681095</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458549</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>519.9105708963855</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>786.1165328681095</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458549</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>916.2813960447889</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.0866076114307</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>786.1165328681095</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>786.1165328681095</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447888</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>115.8680294043068</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>125.646990566711</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>140.7232059832938</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.65974985413143</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>194.0192887222342</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>96.5625395927552</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.22000922290067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U31" t="n">
-        <v>139.5921776627258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.87832135360793</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>146.3969823313455</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>52.48244153328278</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.8934612194283</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.631333357557303</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477293.7114586759</v>
+        <v>568182.1916368316</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477293.7114586758</v>
+        <v>568182.1916368317</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605886.2217579552</v>
+        <v>605886.2217579553</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>477293.7114586759</v>
+        <v>568182.1916368318</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477293.7114586759</v>
+        <v>568182.1916368318</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
         <v>321688.391934245</v>
@@ -26322,13 +26322,13 @@
         <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>249022.8059784396</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="F2" t="n">
-        <v>249022.8059784395</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
         <v>316114.5504824113</v>
@@ -26352,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>249022.8059784396</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="P2" t="n">
-        <v>249022.8059784396</v>
+        <v>296442.8825931296</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867178</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527198</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>239739.5295867427</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73895.80412140676</v>
+        <v>117716.538545831</v>
       </c>
       <c r="C4" t="n">
-        <v>73895.80412140675</v>
+        <v>117716.538545831</v>
       </c>
       <c r="D4" t="n">
-        <v>73895.80412140675</v>
+        <v>117716.538545831</v>
       </c>
       <c r="E4" t="n">
-        <v>4770.597470667719</v>
+        <v>6909.757262089088</v>
       </c>
       <c r="F4" t="n">
-        <v>4770.597470667719</v>
+        <v>6909.757262089086</v>
       </c>
       <c r="G4" t="n">
-        <v>6055.892226606838</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="H4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562895</v>
       </c>
       <c r="I4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="J4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="K4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="L4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562895</v>
       </c>
       <c r="M4" t="n">
-        <v>6055.892226606836</v>
+        <v>7368.282185562894</v>
       </c>
       <c r="N4" t="n">
-        <v>6055.892226606837</v>
+        <v>7368.282185562895</v>
       </c>
       <c r="O4" t="n">
-        <v>4770.597470667719</v>
+        <v>6909.757262089088</v>
       </c>
       <c r="P4" t="n">
-        <v>4770.597470667719</v>
+        <v>6909.757262089088</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952316</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952316</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952316</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952316</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952316</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952316</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952316</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148611.8913534026</v>
+        <v>-93940.36975738862</v>
       </c>
       <c r="C6" t="n">
-        <v>158455.0789333151</v>
+        <v>129759.3288266563</v>
       </c>
       <c r="D6" t="n">
-        <v>158455.0789333152</v>
+        <v>129759.3288266563</v>
       </c>
       <c r="E6" t="n">
-        <v>188542.2996282488</v>
+        <v>66550.20005441719</v>
       </c>
       <c r="F6" t="n">
-        <v>188542.2996282487</v>
+        <v>217215.9536261652</v>
       </c>
       <c r="G6" t="n">
-        <v>133127.3760147401</v>
+        <v>201705.9771246217</v>
       </c>
       <c r="H6" t="n">
-        <v>232340.419650012</v>
+        <v>230795.7862972295</v>
       </c>
       <c r="I6" t="n">
-        <v>232340.419650012</v>
+        <v>230795.7862972295</v>
       </c>
       <c r="J6" t="n">
-        <v>-7399.109936730732</v>
+        <v>56144.43757952334</v>
       </c>
       <c r="K6" t="n">
-        <v>232340.419650012</v>
+        <v>230795.7862972295</v>
       </c>
       <c r="L6" t="n">
-        <v>232340.419650012</v>
+        <v>230795.7862972295</v>
       </c>
       <c r="M6" t="n">
-        <v>232340.4196500119</v>
+        <v>105044.6979615388</v>
       </c>
       <c r="N6" t="n">
-        <v>232340.419650012</v>
+        <v>230795.7862972295</v>
       </c>
       <c r="O6" t="n">
-        <v>188542.2996282487</v>
+        <v>217215.9536261652</v>
       </c>
       <c r="P6" t="n">
-        <v>188542.2996282487</v>
+        <v>217215.9536261652</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447888</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447888</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447888</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447888</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447888</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447888</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447888</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447888</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399565</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447887</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447888</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399565</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.805055684708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>88.46574960954359</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.89958709753256</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>83.52887324140022</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>786.1165328681095</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458551</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>519.9105708963855</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>786.1165328681095</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>916.2813960447889</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.0866076114307</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>786.1165328681095</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,10 +37782,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>786.1165328681095</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447888</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307558</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
